--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_4.xlsx
@@ -488,926 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_0</t>
+          <t>model_1_4_18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9608564711646699</v>
+        <v>0.915947389377272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7540701169797213</v>
+        <v>0.7494139628826049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9771066013743483</v>
+        <v>0.9511382956819157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.293047394840251</v>
+        <v>0.9232668268268687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9194296234511606</v>
+        <v>0.9441611507208337</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1642770022153854</v>
+        <v>0.3527508080005646</v>
       </c>
       <c r="H2" t="n">
-        <v>1.644534230232239</v>
+        <v>1.675670027732849</v>
       </c>
       <c r="I2" t="n">
-        <v>0.205983579158783</v>
+        <v>0.1324293911457062</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5879150032997131</v>
+        <v>0.5713264346122742</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3969493508338928</v>
+        <v>0.3518781363964081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_1</t>
+          <t>model_1_4_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9609091920415103</v>
+        <v>0.9156460846210421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7538988686840059</v>
+        <v>0.7494122244072929</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9768655200801223</v>
+        <v>0.9514855588622944</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2917494752045099</v>
+        <v>0.9261705690986639</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9190999563204114</v>
+        <v>0.9459513125438435</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1640557497739792</v>
+        <v>0.3540153503417969</v>
       </c>
       <c r="H3" t="n">
-        <v>1.645679235458374</v>
+        <v>1.675681591033936</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2081526815891266</v>
+        <v>0.1314882040023804</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5889943838119507</v>
+        <v>0.5497062802314758</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3985735177993774</v>
+        <v>0.3405970931053162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_2</t>
+          <t>model_1_4_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9609564660314449</v>
+        <v>0.9162109578811638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7537264726925545</v>
+        <v>0.7493990103578512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9766186655370501</v>
+        <v>0.9507547203039182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2904521545706373</v>
+        <v>0.9203245285373916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9187650244895303</v>
+        <v>0.9423404775926632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1638573706150055</v>
+        <v>0.3516446650028229</v>
       </c>
       <c r="H4" t="n">
-        <v>1.646832346916199</v>
+        <v>1.675770044326782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2103737592697144</v>
+        <v>0.1334689855575562</v>
       </c>
       <c r="J4" t="n">
-        <v>0.59007328748703</v>
+        <v>0.5932337045669556</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4002236127853394</v>
+        <v>0.3633514046669006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_3</t>
+          <t>model_1_4_16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9609983533652512</v>
+        <v>0.9153052199588003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7535529755732944</v>
+        <v>0.7493927998090515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9763663003545775</v>
+        <v>0.951792513403769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2891538723000887</v>
+        <v>0.9290327796549618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.918425019061051</v>
+        <v>0.947708163258734</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1636815518140793</v>
+        <v>0.3554458320140839</v>
       </c>
       <c r="H5" t="n">
-        <v>1.647992372512817</v>
+        <v>1.675811529159546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2126444280147552</v>
+        <v>0.1306562721729279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5911529660224915</v>
+        <v>0.5283953547477722</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4018987417221069</v>
+        <v>0.3295260369777679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_4</t>
+          <t>model_1_4_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9610350419364339</v>
+        <v>0.9164384686304301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75337840589581</v>
+        <v>0.7493682728617739</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9761085856589173</v>
+        <v>0.9503381641698666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2878560803844527</v>
+        <v>0.9173470462854053</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9180801665304754</v>
+        <v>0.9404918667331271</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1635276079177856</v>
+        <v>0.3506898880004883</v>
       </c>
       <c r="H6" t="n">
-        <v>1.649159789085388</v>
+        <v>1.675975561141968</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2149632275104523</v>
+        <v>0.134597972035408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5922322273254395</v>
+        <v>0.6154029369354248</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4035977423191071</v>
+        <v>0.3750007450580597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_5</t>
+          <t>model_1_4_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9610666707014077</v>
+        <v>0.9149229999328112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7532028655157107</v>
+        <v>0.7493547572795016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9758456426687364</v>
+        <v>0.9520549676862196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2865590268446594</v>
+        <v>0.9318500216474972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9177306156204865</v>
+        <v>0.9494289780104248</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1633948385715485</v>
+        <v>0.357049971818924</v>
       </c>
       <c r="H7" t="n">
-        <v>1.650333642959595</v>
+        <v>1.676065921783447</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2173290550708771</v>
+        <v>0.1299449354410172</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5933108329772949</v>
+        <v>0.507419228553772</v>
       </c>
       <c r="K7" t="n">
-        <v>0.40531986951828</v>
+        <v>0.3186820149421692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_6</t>
+          <t>model_1_4_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9610933506987606</v>
+        <v>0.9166314684559945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7530263860860429</v>
+        <v>0.7493226528968238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9755777687522657</v>
+        <v>0.9498917327880788</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2852620520822211</v>
+        <v>0.9143367558384761</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9173765252335564</v>
+        <v>0.9386175422671523</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1632828861474991</v>
+        <v>0.3498798608779907</v>
       </c>
       <c r="H8" t="n">
-        <v>1.651513814926147</v>
+        <v>1.676280617713928</v>
       </c>
       <c r="I8" t="n">
-        <v>0.219739243388176</v>
+        <v>0.1358079314231873</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5943894386291504</v>
+        <v>0.6378164291381836</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4070644378662109</v>
+        <v>0.3868121206760406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_7</t>
+          <t>model_1_4_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9611152696504995</v>
+        <v>0.9144975003599941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7528490194321272</v>
+        <v>0.7492970012348243</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9753051404763399</v>
+        <v>0.9522691219935071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2839663364625866</v>
+        <v>0.9346188368387793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9170182409390318</v>
+        <v>0.9511107464140346</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1631908863782883</v>
+        <v>0.3588357269763947</v>
       </c>
       <c r="H9" t="n">
-        <v>1.652699708938599</v>
+        <v>1.676452159881592</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2221922278404236</v>
+        <v>0.1293645203113556</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5954670310020447</v>
+        <v>0.4868036508560181</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4088295996189117</v>
+        <v>0.3080840408802032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_8</t>
+          <t>model_1_4_22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9611325099493795</v>
+        <v>0.9167916762269019</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7526708535736023</v>
+        <v>0.749262935887182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.975027829844362</v>
+        <v>0.9494188618902191</v>
       </c>
       <c r="E10" t="n">
-        <v>0.282671590353864</v>
+        <v>0.9112971626842694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9166557325002966</v>
+        <v>0.9367201518666211</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1631185412406921</v>
+        <v>0.3492075204849243</v>
       </c>
       <c r="H10" t="n">
-        <v>1.653891086578369</v>
+        <v>1.676679968833923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2246873378753662</v>
+        <v>0.1370895504951477</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5965437889099121</v>
+        <v>0.6604480743408203</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4106155931949615</v>
+        <v>0.3987688422203064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_9</t>
+          <t>model_1_4_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9611452349744259</v>
+        <v>0.9140267821474688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7524918930220267</v>
+        <v>0.7492184687961343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9747461564660455</v>
+        <v>0.9524302634697793</v>
       </c>
       <c r="E11" t="n">
-        <v>0.281378372301848</v>
+        <v>0.9373356616400009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9162893968597041</v>
+        <v>0.9527503875797333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.163065105676651</v>
+        <v>0.3608112037181854</v>
       </c>
       <c r="H11" t="n">
-        <v>1.655087947845459</v>
+        <v>1.676977276802063</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2272216975688934</v>
+        <v>0.1289277821779251</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5976191759109497</v>
+        <v>0.4665751755237579</v>
       </c>
       <c r="K11" t="n">
-        <v>0.412420392036438</v>
+        <v>0.2977515757083893</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_10</t>
+          <t>model_1_4_23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9611535673843776</v>
+        <v>0.9169203948294788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7523122413656149</v>
+        <v>0.7491899480682545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.974460216656454</v>
+        <v>0.9489224375802278</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2800866391557264</v>
+        <v>0.9082302582409799</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9159192726156818</v>
+        <v>0.9348016114224583</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1630301475524902</v>
+        <v>0.348667323589325</v>
       </c>
       <c r="H12" t="n">
-        <v>1.656289219856262</v>
+        <v>1.677167892456055</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2297944277524948</v>
+        <v>0.1384350061416626</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5986933708190918</v>
+        <v>0.6832830905914307</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4142439067363739</v>
+        <v>0.4108588695526123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_11</t>
+          <t>model_1_4_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9611575874898707</v>
+        <v>0.9135086868903585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7521319199743097</v>
+        <v>0.7491180693293022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9741701356613988</v>
+        <v>0.952533616032237</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2787964619236079</v>
+        <v>0.9399966352959661</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9155454714726936</v>
+        <v>0.9543446296918048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1630133092403412</v>
+        <v>0.3629854917526245</v>
       </c>
       <c r="H13" t="n">
-        <v>1.657495021820068</v>
+        <v>1.677648782730103</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2324044406414032</v>
+        <v>0.128647655248642</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5997663736343384</v>
+        <v>0.4467625916004181</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4160855412483215</v>
+        <v>0.2877051830291748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_12</t>
+          <t>model_1_4_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9611575019768331</v>
+        <v>0.9170191682998418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7519510061922057</v>
+        <v>0.7491044508473256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9738761908330705</v>
+        <v>0.9484048700418218</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2775086254743232</v>
+        <v>0.9051391236202809</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9151683922191302</v>
+        <v>0.9328641334211476</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1630136668682098</v>
+        <v>0.3482528030872345</v>
       </c>
       <c r="H14" t="n">
-        <v>1.658704876899719</v>
+        <v>1.677739858627319</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2350492030382156</v>
+        <v>0.1398377567529678</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6008373498916626</v>
+        <v>0.7062985897064209</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4179432988166809</v>
+        <v>0.4230682253837585</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_13</t>
+          <t>model_1_4_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9611533054243698</v>
+        <v>0.9129411089156717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7517695034092517</v>
+        <v>0.7489945812280363</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9735784206250387</v>
+        <v>0.9525745982185257</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2762218571563797</v>
+        <v>0.942597745200487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9147878858960157</v>
+        <v>0.9558901017583726</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1630312502384186</v>
+        <v>0.3653675317764282</v>
       </c>
       <c r="H15" t="n">
-        <v>1.659918427467346</v>
+        <v>1.678474426269531</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2377284020185471</v>
+        <v>0.128536581993103</v>
       </c>
       <c r="J15" t="n">
-        <v>0.60190749168396</v>
+        <v>0.4273957014083862</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4198179543018341</v>
+        <v>0.2779661118984222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_14</t>
+          <t>model_1_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.961145201151369</v>
+        <v>0.9123218009107928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7515874977500735</v>
+        <v>0.7488467921845874</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9732770633666257</v>
+        <v>0.9525477319420405</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2749374440048742</v>
+        <v>0.9451348213927225</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9144043274497983</v>
+        <v>0.9573831422098155</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1630652844905853</v>
+        <v>0.3679666221141815</v>
       </c>
       <c r="H16" t="n">
-        <v>1.66113543510437</v>
+        <v>1.679462671279907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2404398620128632</v>
+        <v>0.1286094039678574</v>
       </c>
       <c r="J16" t="n">
-        <v>0.602975606918335</v>
+        <v>0.4085055887699127</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4217076599597931</v>
+        <v>0.2685574889183044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_15</t>
+          <t>model_1_4_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9611333040447197</v>
+        <v>0.9116484211008606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7514050323747812</v>
+        <v>0.7486734375590334</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9729722904168728</v>
+        <v>0.9524478896402253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2736560067545663</v>
+        <v>0.9476035551945746</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9140178634174529</v>
+        <v>0.9588201154193867</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1631152033805847</v>
+        <v>0.3707926571369171</v>
       </c>
       <c r="H17" t="n">
-        <v>1.662355661392212</v>
+        <v>1.680621862411499</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2431820631027222</v>
+        <v>0.1288800090551376</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6040412783622742</v>
+        <v>0.3901243209838867</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4236117005348206</v>
+        <v>0.259502112865448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_16</t>
+          <t>model_1_4_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9611176807846973</v>
+        <v>0.9109185096639277</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7512221377570329</v>
+        <v>0.748473228977696</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9726641943645226</v>
+        <v>0.9522696382403052</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2723759887565241</v>
+        <v>0.9499992561740492</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9136284983180791</v>
+        <v>0.9601970362101538</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1631807535886765</v>
+        <v>0.3738559484481812</v>
       </c>
       <c r="H18" t="n">
-        <v>1.663578748703003</v>
+        <v>1.681960701942444</v>
       </c>
       <c r="I18" t="n">
-        <v>0.245954155921936</v>
+        <v>0.1293631196022034</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6051056981086731</v>
+        <v>0.3722867965698242</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4255299866199493</v>
+        <v>0.2508252263069153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_17</t>
+          <t>model_1_4_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9610984634039915</v>
+        <v>0.9101296049476958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7510388583330754</v>
+        <v>0.7482448043766652</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9723528731290271</v>
+        <v>0.952007269316716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2710995744987497</v>
+        <v>0.9523170042464162</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9132364964924231</v>
+        <v>0.9615099149736569</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1632614135742188</v>
+        <v>0.3771667778491974</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664804339408875</v>
+        <v>1.683488130569458</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2487552762031555</v>
+        <v>0.130074217915535</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6061672568321228</v>
+        <v>0.3550297319889069</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4274612367153168</v>
+        <v>0.2425518929958344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_18</t>
+          <t>model_1_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9610757517171975</v>
+        <v>0.9092791462977428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7508552569413935</v>
+        <v>0.7479867523233805</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9720386170011941</v>
+        <v>0.9516550840029692</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2698253147718843</v>
+        <v>0.9545519802065379</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9128419989482083</v>
+        <v>0.9627545323495654</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1633567363023758</v>
+        <v>0.3807359933853149</v>
       </c>
       <c r="H20" t="n">
-        <v>1.666032075881958</v>
+        <v>1.685213804244995</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2515828013420105</v>
+        <v>0.1310287266969681</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6072269678115845</v>
+        <v>0.3383889198303223</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4294048249721527</v>
+        <v>0.2347087264060974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_19</t>
+          <t>model_1_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9610496671823036</v>
+        <v>0.9083643940809796</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7506713636775718</v>
+        <v>0.7476976665256267</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9717215125144931</v>
+        <v>0.9512074703320439</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2685544705035589</v>
+        <v>0.9566987171372487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9124451680008605</v>
+        <v>0.9639264698623213</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1634662002325058</v>
+        <v>0.3845750093460083</v>
       </c>
       <c r="H21" t="n">
-        <v>1.667261719703674</v>
+        <v>1.687146782875061</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2544359564781189</v>
+        <v>0.1322419047355652</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6082837581634521</v>
+        <v>0.3224051594734192</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4313599169254303</v>
+        <v>0.2273235470056534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_20</t>
+          <t>model_1_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9610203071983785</v>
+        <v>0.9073826578433184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7504872217287704</v>
+        <v>0.7473760814667925</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9714016250865708</v>
+        <v>0.9506585239622912</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2672869182257555</v>
+        <v>0.9587519148885464</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9120461078318717</v>
+        <v>0.9650214087283477</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1635894328355789</v>
+        <v>0.3886951804161072</v>
       </c>
       <c r="H22" t="n">
-        <v>1.668493032455444</v>
+        <v>1.689297318458557</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2573141157627106</v>
+        <v>0.1337296962738037</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6093378663063049</v>
+        <v>0.3071177899837494</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4333259463310242</v>
+        <v>0.2204236090183258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_21</t>
+          <t>model_1_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.960987743407631</v>
+        <v>0.9063310756185198</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7503028801105615</v>
+        <v>0.7470205431140713</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9710792259108366</v>
+        <v>0.9500026606431775</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2660218422376355</v>
+        <v>0.9607057884254429</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9116449539138067</v>
+        <v>0.9660346168017599</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1637260764837265</v>
+        <v>0.393108457326889</v>
       </c>
       <c r="H23" t="n">
-        <v>1.669725775718689</v>
+        <v>1.691674828529358</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2602149248123169</v>
+        <v>0.1355072855949402</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6103899478912354</v>
+        <v>0.2925699651241302</v>
       </c>
       <c r="K23" t="n">
-        <v>0.435302346944809</v>
+        <v>0.2140387147665024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_22</t>
+          <t>model_1_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9609520922921169</v>
+        <v>0.9052069028844498</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7501183377247903</v>
+        <v>0.7466295614916385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9707542776205649</v>
+        <v>0.9492342707764778</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2647611132476522</v>
+        <v>0.9625544651859881</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9112418240917881</v>
+        <v>0.9669615293258865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1638757139444351</v>
+        <v>0.3978263437747955</v>
       </c>
       <c r="H24" t="n">
-        <v>1.670959830284119</v>
+        <v>1.694289326667786</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2631386518478394</v>
+        <v>0.1375898420810699</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6114383935928345</v>
+        <v>0.2788054049015045</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4372884929180145</v>
+        <v>0.208197608590126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_23</t>
+          <t>model_1_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9609134616946857</v>
+        <v>0.9040072064921422</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7499337094625613</v>
+        <v>0.7462016763248658</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9704269489353193</v>
+        <v>0.948348077381948</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2635042949881441</v>
+        <v>0.9642919335000895</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9108368630774288</v>
+        <v>0.9677974240440554</v>
       </c>
       <c r="G25" t="n">
-        <v>0.164037823677063</v>
+        <v>0.4028612077236176</v>
       </c>
       <c r="H25" t="n">
-        <v>1.672194480895996</v>
+        <v>1.697150468826294</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2660837769508362</v>
+        <v>0.1399916857481003</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6124835610389709</v>
+        <v>0.2658688724040985</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4392836093902588</v>
+        <v>0.2029300779104233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_4_24</t>
+          <t>model_1_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9608719051261729</v>
+        <v>0.9027290899101954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7497489447855823</v>
+        <v>0.7457354421238647</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9700974682993192</v>
+        <v>0.9473390779281052</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2622497529077396</v>
+        <v>0.9659121470339758</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9104301193107511</v>
+        <v>0.9685375805054008</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1642122268676758</v>
+        <v>0.4082251787185669</v>
       </c>
       <c r="H26" t="n">
-        <v>1.6734299659729</v>
+        <v>1.700268268585205</v>
       </c>
       <c r="I26" t="n">
-        <v>0.269048273563385</v>
+        <v>0.1427263617515564</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6135269403457642</v>
+        <v>0.2538053691387177</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4412875473499298</v>
+        <v>0.1982658505439758</v>
       </c>
     </row>
   </sheetData>
